--- a/Documentation/Shopping List_modified_v03.xlsx
+++ b/Documentation/Shopping List_modified_v03.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
   <si>
     <t>Item</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Nuts Nylon M3</t>
   </si>
   <si>
-    <t>USB2FTDI</t>
-  </si>
-  <si>
     <t>Connector DF13-5S-1.25C</t>
   </si>
   <si>
@@ -407,6 +404,18 @@
   </si>
   <si>
     <t>http://www.kjell.com/se/sortiment/el/verktyg/matinstrument/matsladdar-prober-kontakter/labbkontakter-4-mm/4-mm-labbpropp-39-mm-svart-p37872</t>
+  </si>
+  <si>
+    <t>USB2FTDI3V3</t>
+  </si>
+  <si>
+    <t>USB2FTDI5V</t>
+  </si>
+  <si>
+    <t>https://www.elfa.se/sv/usb-kablage-usb-ttl-cmos-ftdi-ttl-232r-3v3/p/17320674?q=*&amp;filter_Buyable=1&amp;filter_Category7=USB-kablage+med+FT232RQ&amp;filter_Category3=Linj%C3%A4ra+kretsar&amp;filter_Category4=Gr%C3%A4nssnittskretsar&amp;filter_Category6=USB-moduler+med+FT232&amp;filter_Category5=Interface-kretsar&amp;page=2&amp;origPageSize=50&amp;simi=99.5</t>
+  </si>
+  <si>
+    <t>Payed to team</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1080,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1079,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S38"/>
+  <dimension ref="A2:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1321,7 +1330,7 @@
         <v>89.99</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D36" si="0">B11*C11</f>
+        <f t="shared" ref="D11:D37" si="0">B11*C11</f>
         <v>179.98</v>
       </c>
       <c r="E11" s="2">
@@ -1340,7 +1349,7 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="14">
-        <f t="shared" ref="J11:J36" si="1">F11*H11</f>
+        <f t="shared" ref="J11:J37" si="1">F11*H11</f>
         <v>1920.316032</v>
       </c>
       <c r="K11" s="14">
@@ -1386,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F36" si="2">D12+E12</f>
+        <f t="shared" ref="F12:F37" si="2">D12+E12</f>
         <v>3180</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1643,7 +1652,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1675,16 +1684,16 @@
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1716,16 +1725,16 @@
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -1757,11 +1766,11 @@
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1795,6 +1804,9 @@
       <c r="K23" s="14"/>
       <c r="L23" s="12"/>
       <c r="M23" s="13"/>
+      <c r="Q23" s="10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="11" t="s">
@@ -1962,16 +1974,22 @@
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2008,38 +2026,44 @@
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="11" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B30" s="12">
         <v>1</v>
       </c>
       <c r="C30" s="12">
-        <v>236.25</v>
+        <v>212</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>236.25</v>
+        <v>212</v>
       </c>
       <c r="E30" s="12">
         <v>0</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="2"/>
-        <v>236.25</v>
+        <v>212</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>20</v>
@@ -2050,42 +2074,48 @@
       <c r="I30" s="12"/>
       <c r="J30" s="14">
         <f t="shared" si="1"/>
-        <v>236.25</v>
+        <v>212</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="11" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B31" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="12">
-        <v>2.61</v>
+        <v>236.25</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>5.22</v>
+        <v>236.25</v>
       </c>
       <c r="E31" s="12">
         <v>0</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v>5.22</v>
+        <v>236.25</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>20</v>
@@ -2096,42 +2126,48 @@
       <c r="I31" s="12"/>
       <c r="J31" s="14">
         <f t="shared" si="1"/>
-        <v>5.22</v>
+        <v>236.25</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="12">
-        <v>10.92</v>
+        <v>2.61</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>32.76</v>
+        <v>5.22</v>
       </c>
       <c r="E32" s="12">
         <v>0</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="2"/>
-        <v>32.76</v>
+        <v>5.22</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>20</v>
@@ -2142,25 +2178,31 @@
       <c r="I32" s="12"/>
       <c r="J32" s="14">
         <f t="shared" si="1"/>
-        <v>32.76</v>
+        <v>5.22</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>99</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="12">
         <v>3</v>
@@ -2192,100 +2234,120 @@
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="O33" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="12">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12">
+        <v>10.92</v>
+      </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
+        <v>32.76</v>
+      </c>
+      <c r="E34" s="12">
         <v>0</v>
       </c>
-      <c r="E34" s="12"/>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+        <v>32.76</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
       <c r="I34" s="12"/>
       <c r="J34" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32.76</v>
       </c>
       <c r="K34" s="14"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="20"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="12">
-        <v>4</v>
-      </c>
-      <c r="C35" s="21">
-        <v>50</v>
-      </c>
+      <c r="L34" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E35" s="12">
         <v>0</v>
       </c>
+      <c r="E35" s="12"/>
       <c r="F35" s="2">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="12">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="14">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="14"/>
-      <c r="L35" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="L35" s="12"/>
       <c r="M35" s="20"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:17">
       <c r="A36" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B36" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="21">
-        <v>17.899999999999999</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>200</v>
       </c>
       <c r="E36" s="12">
         <v>0</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="2"/>
-        <v>35.799999999999997</v>
+        <v>200</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>20</v>
@@ -2296,61 +2358,99 @@
       <c r="I36" s="12"/>
       <c r="J36" s="14">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>200</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="12">
+        <v>2</v>
+      </c>
+      <c r="C37" s="21">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1</v>
+      </c>
       <c r="I37" s="12"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="14">
+        <f t="shared" si="1"/>
+        <v>35.799999999999997</v>
+      </c>
       <c r="K37" s="14"/>
-      <c r="L37" s="12"/>
+      <c r="L37" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="M37" s="20" t="s">
         <v>14</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1">
-      <c r="A38" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" thickBot="1">
+      <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="17">
-        <f>SUM(J8:J36)</f>
-        <v>15170.110962000001</v>
-      </c>
-      <c r="K38" s="17">
-        <f>SUM(K8:K36)</f>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="17">
+        <f>SUM(J8:J37)</f>
+        <v>15382.110962000001</v>
+      </c>
+      <c r="K39" s="17">
+        <f>SUM(K8:K37)</f>
         <v>14513.550000000001</v>
       </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
